--- a/Tables/invertor_vector/main_params_inverter_vector.xlsx
+++ b/Tables/invertor_vector/main_params_inverter_vector.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="0x1806869A-0x00000581" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -405,7 +405,7 @@
   <dimension ref="A1:M1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="21:21"/>
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -413,15 +413,16 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="36.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="12.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="6.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="7.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="7.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="8.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
